--- a/dotnet6-epha-api/wwwroot/AttachedFileTemp/HAZOP AttendeeSheet Template.xlsx
+++ b/dotnet6-epha-api/wwwroot/AttachedFileTemp/HAZOP AttendeeSheet Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet6-epha-api\dotnet6-epha-api\wwwroot\AttachedFileTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB786499-FDC1-4F52-B378-D3BD7AB0D8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E8A0EB-C847-4106-B0A5-0F0D9E133058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4058CC9-7625-4F04-AC63-2A52519233C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E4058CC9-7625-4F04-AC63-2A52519233C4}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZOP Cover Page" sheetId="2" r:id="rId1"/>
@@ -626,28 +626,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -677,52 +701,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA02D903-9A9F-4430-AE95-69F7EF0CA0E1}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1147,12 +1147,12 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1163,12 +1163,12 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="179.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,17 +1187,17 @@
     </row>
     <row r="4" spans="1:12" ht="310.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
@@ -1216,13 +1216,13 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1246,13 +1246,13 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,11 +1262,11 @@
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,11 +1276,11 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,11 +1290,11 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,13 +1304,13 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,10 +1327,10 @@
       <c r="G13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,8 +1351,8 @@
       <c r="I14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,11 +1366,11 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="52" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="8"/>
@@ -1394,11 +1394,11 @@
       <c r="F16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="53"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1417,6 +1417,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G8:K11"/>
+    <mergeCell ref="G6:K6"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="B4:J4"/>
@@ -1424,12 +1430,6 @@
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="G12:K12"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="G6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1445,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3B4BD6-1776-4350-B44E-FFDC801AB083}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1460,41 +1460,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
